--- a/spec/models/ASW/Eng/InjSys/InjUn/Rail/Rail_SetPoint/Rail_SetPointInspectReport.xlsx
+++ b/spec/models/ASW/Eng/InjSys/InjUn/Rail/Rail_SetPoint/Rail_SetPointInspectReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dulinggang\T3NSE\trunk\spec\model\swCore\ASW\Eng\InjSys\InjUn\Rail\Rail_SetPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A345C54-C378-4ADA-BBDC-624DCF672377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF3DD4-EB64-4314-B1B7-E62C090312BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28095" yWindow="3645" windowWidth="24000" windowHeight="6450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2145" windowWidth="24000" windowHeight="6450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="2" r:id="rId1"/>
